--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8205"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>THỨ HAI</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>12A1</t>
+  </si>
+  <si>
+    <t>Thi HSG</t>
   </si>
 </sst>
 </file>
@@ -239,10 +242,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,7 +549,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -609,110 +612,114 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -725,36 +732,56 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8205"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>12A1</t>
   </si>
   <si>
-    <t>Thi HSG</t>
+    <t>Ôn HSG</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -748,28 +748,28 @@
         <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H11" s="3"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\ngochaibkit.documents.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James-PC\Documents\GitHub\ngochaibkit.documents.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746601D9-A2BF-47BD-AC71-6C77B5D993FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8205"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>THỨ HAI</t>
   </si>
@@ -96,15 +97,12 @@
   </si>
   <si>
     <t>12A1</t>
-  </si>
-  <si>
-    <t>Ôn HSG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="13"/>
@@ -545,11 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -633,9 +631,7 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -657,9 +653,7 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -736,23 +730,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -761,16 +745,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
